--- a/Term Project/Phase 3/insert script/lineCook.xlsx
+++ b/Term Project/Phase 3/insert script/lineCook.xlsx
@@ -37,6 +37,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,8 +110,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,117 +200,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A21"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1208</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>1215</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>1223</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>1235</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>1236</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>1239</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>1240</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>1247</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>1299</v>
       </c>
     </row>
   </sheetData>
